--- a/project/DOC/info/teamNumberOne_요구명세서.xlsx
+++ b/project/DOC/info/teamNumberOne_요구명세서.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\PHP_1STPJ\project\DOC\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="요구명세서" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="프로젝트 진행 내용(일정 관리표)" sheetId="2" r:id="rId2"/>
     <sheet name="일간작업진행사항 보고()23.04.17)" sheetId="4" r:id="rId3"/>
     <sheet name="일간작업진행사항 보고()23.04.18)" sheetId="7" r:id="rId4"/>
     <sheet name="회의록(23.04.17)" sheetId="5" r:id="rId5"/>
+    <sheet name="요구명세서" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'회의록(23.04.17)'!$A$1:$I$40</definedName>
@@ -31,7 +32,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="248">
+  <si>
+    <t>주제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래의 나에게 편지 쓰기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공상 과학 실험 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간여행 준비 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주탐험 계획 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>초능력 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상 도시 건설관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 속 주인공이 되기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공지능 개발자 도우미</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역사적 인물의 일상 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판타지 세계여행 일정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 미래의 자신에게 보낼 편지를 작성하고, 특정 날짜에 전달 되도록 스케쥴링하는 todolisst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 공상 과학 아이디어나 가상의 발명품을 기록하고, 관련 아이디어를 발전시키며 구체화할 수 있는 todolist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 가장의 시간여행 계획을 세우고, 준비물, 목적지,역사적 사건 등을 관리하는 시간여행 전용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 가상의 우주 탐험 계획을 세우고,탐사 지역, 우주선 설계,크루 명단 등을 관리하는 우주 탐험 전용 투두</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 가상의 초능력을 선택하고 그에따른 능력 향상임무수행 영웅 활약 등을 관리하는 초능력 전용 투두</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 가상의 도시를 계획하고 mrjsanf과 인프라 설계 도시 발전 계획 등을 관리하는 도시 건설 전용 투두</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 좋아하는 영화의 주인공이 되어 그 역할에 맞는 일정과 할 일을 관리하는 영화속 주인공</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 인공지능개발 프로젝트를 관리할 수 있도록 도와주는 자체 인공지능 기능을 갖춘 투두</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 역사적 인물이 되어 그들의 일상과 업적을 관리하고 경험할 수 있는 역사적 인물 전용 투두</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판타지 세계 여행에서 하게 되는 일들을 정리 한것으로 마법,기사등 직업에 따른 일정과 학습 등을 관리하는 투두</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>시간</t>
   </si>
@@ -75,6 +164,54 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>운동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">과거공부 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>임진왜란</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투진행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>박상준</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -100,6 +237,23 @@
   </si>
   <si>
     <t>노수빈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>독서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 공통</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 
+보여줄것?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">역사 인물 일대기 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -146,6 +300,30 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>게임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정/전체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미라클모닝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침 기상시간 미션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침 미션 렌덤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상시간체크 - 기상시간을 기록 - 한주 평균 기상시간 알려주기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>미라클모닝
 1. 아침 기상시간을 기록하고 기상 미션을 정해서 수행하도록 하고 , 랜덤 미션 기능을 통해서 아침마다 해야될 과업을 랜덤으로 알려주기</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -287,14 +465,6 @@
   </si>
   <si>
     <t>수행 완료 제어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 수행 완료 버튼으로 제어 가능하게 구현
-- 완료 버튼 클릭 시 수행 완료 처리
-- 처리 후 리스트 페이지로 이동
-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -685,10 +855,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0417 추가 - 고객협의 완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 - 작성 완료 버튼으로 제어 가능하게 구현
 - 버튼 클릭 시 작성 처리
@@ -710,38 +876,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>- 기상시간
-- 수행여부 마다 점수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 제목 클릭시 상세페이지 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 날짜
-2. 기상시간
-3. 카테고리
-4. 제목
-5. 수행내용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 날짜
-2. 기상시간
-3. 카테고리
-4. 제목
-5. 수행내용
- - 위 내용들 화면에 표시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 페이지 전체 제목
-2. 내용(표시)  :
-  - 글번호 
-  - 날짜/ 첫 과업의 대표 카테고리
-  - 첫 과업의 제목(글자 제한)
-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -797,13 +932,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0417 추가 - 고객협의 완료
-- 그날 과업이 종료되므로 기한일자를 화면상에는  표시하지 않으나 DB상에서 관리
-- 수행 완료된 LIST는 취소선이 아닌 제목라인 글자색 변경으로 출력
-- 기한 일자가 당일임으로 기한 1일전인 하이라이트는 불필요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 리스트 페이지 이동버튼 구현
    - 버튼 클릭시 리스트 페이지로 이동</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -969,14 +1097,6 @@
   </si>
   <si>
     <t>1.기상 미션 진행여부에 대한 점검 내용 의견</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 제목 입력란
-2. 기상시간 입력란 
-3. 카테고리 입력란
-4. 날짜 자동 입력 입력란
-5. 과업 내용 입력란</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1086,43 +1206,336 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>작업 지시서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참석자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박상준, 노수빈, 신은영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구성 작업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마를 사용한 페이지 예시 구성요소 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.05.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 페이지 전체 제목
+2. 내용(표시)  :
+  - 글번호 
+  - 날짜/카테고리
+  - 첫 과업의 제목(글자 제한)
+  -  완료 체크
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0417 추가 -고객협의 완료
+- 그날 과업이 종료되므로 기한일자를 화면상에는  표시하지 않으나 DB상에서 관리
+- 수행 완료된 LIST는 취소선으로 
+- 기한 일자가 당일이므로 기한 1일전인 하이라이트는 불필요
+0418 추가 -고객협의 완료
+다시 수행완료된 LIST는 취소선으로 출력하기로 함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>노수빈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 통계 버튼 추가
 (기상 시간 추세, 수행 달성율 통계데이터 창 출력)
- - 수행여부에 따른 케릭터의 변화모습 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업 지시서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 수행여부 선택(버튼식) 구현
- (완료, 부분완료, 미완료)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>참석자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박상준, 노수빈, 신은영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 구성 작업</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>피그마를 사용한 페이지 예시 구성요소 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. 각 활동들의 평균데이터 출력
- 2. 케릭터 모습 출력 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.05.01</t>
+ - 수행여부에 따른 그림(도장)의 변화모습 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0417 추가 -고객협의 완료
+0418 추가 -고객협의 완료
+통계 페이지 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 날짜, 제목
+2. 시작시간
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0202B2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 종료시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 카테고리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0202B2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 완료/미완료
+5. 메모</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신은영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 수행여부 선택 체크 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0420 추가 -고객협의 완료
+수정 페이지에서 수정가능하므로 제외</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 날짜
+2. 시작시간
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0202B2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 종료시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 카테고리
+5. 제목
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0202B2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. 수행여부
+7. 메모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - 위 내용들 화면에 표시</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0418 추가 -고객협의 완료
+종료시간, 수행여부, 메모란 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0418 추가 -고객협의 완료
+종료시간 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 제목 입력란
+2. 시작시간 입력란
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0202B2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 종료시간 입력란</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 카테고리 입력란
+5. 제목 입력란
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0202B2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. 메모</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0418 추가 -고객협의 완료
+종료시간, 메모란 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박상준</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 기상시간
+- 수행여부 마다 점수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 기상 카테고리의 시작시간</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. 평균 기상시간
+ 2. 가장 많이 한일
+ 3. 평균 수행율
+ 4. 수행율에 따른 그림(도장)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0417 추가 -고객협의 완료
+0418 추가 -고객협의 완료
+통계페이지 상세내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 수행 완료 버튼으로 제어 가능하게 구현
+- 완료 버튼 클릭 시 수행 완료 처리
+- 처리 후 리스트 페이지로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+- LIST 제목
+- LIST 상세 내용
+- 시작일자
+- 기한일자
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 종료일자</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1546,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="##00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1199,6 +1612,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1295,8 +1716,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0202B2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1377,6 +1814,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,11 +2418,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1998,13 +2441,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -2076,7 +2522,7 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2100,7 +2546,7 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
@@ -2124,29 +2570,23 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2166,14 +2606,11 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2187,7 +2624,7 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2226,7 +2663,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2262,100 +2699,106 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2385,10 +2828,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2457,15 +2900,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2495,6 +2929,66 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2507,6 +3001,7 @@
   <colors>
     <mruColors>
       <color rgb="FFFFFFCC"/>
+      <color rgb="FF0202B2"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
@@ -2784,669 +3279,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B2:W22"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.375" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="42" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="156" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="1" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="93"/>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="93"/>
+    </row>
+    <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+    </row>
+    <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="G19" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="H19" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="167" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="167" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="128"/>
-    </row>
-    <row r="5" spans="2:23" ht="66" x14ac:dyDescent="0.3">
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="131"/>
-    </row>
-    <row r="6" spans="2:23" ht="66" x14ac:dyDescent="0.3">
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="9" t="s">
+    </row>
+    <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="131"/>
-    </row>
-    <row r="7" spans="2:23" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="L7" s="160"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="130"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="131"/>
-    </row>
-    <row r="8" spans="2:23" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="157" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="157" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="131"/>
-    </row>
-    <row r="9" spans="2:23" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="160"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="131"/>
-    </row>
-    <row r="10" spans="2:23" ht="66" x14ac:dyDescent="0.3">
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="131"/>
-    </row>
-    <row r="11" spans="2:23" ht="66" x14ac:dyDescent="0.3">
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="16" t="s">
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+    </row>
+    <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="D21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="18" t="s">
+    </row>
+    <row r="22" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="131"/>
-    </row>
-    <row r="12" spans="2:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="164" t="s">
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="F22" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="131"/>
-    </row>
-    <row r="13" spans="2:23" ht="116.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
-      <c r="V13" s="133"/>
-      <c r="W13" s="134"/>
-    </row>
-    <row r="14" spans="2:23" ht="66" x14ac:dyDescent="0.3">
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="K14" s="41"/>
-    </row>
-    <row r="15" spans="2:23" ht="66" x14ac:dyDescent="0.3">
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="2:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="170" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="170" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="2:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="K17" s="41"/>
-    </row>
-    <row r="18" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="41"/>
-    </row>
-    <row r="19" spans="2:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="B19" s="162" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="162" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="41"/>
-    </row>
-    <row r="21" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="41"/>
-    </row>
-    <row r="22" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="K22" s="55" t="s">
-        <v>133</v>
-      </c>
-    </row>
+    </row>
+    <row r="23" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="L4:W13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
+  <mergeCells count="3">
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -3469,7 +3531,7 @@
     <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="97" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -3489,24 +3551,24 @@
       <c r="R2" s="97"/>
     </row>
     <row r="3" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="96" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="D3" s="96" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E3" s="96" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="F3" s="96" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G3" s="96" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="H3" s="96"/>
       <c r="I3" s="96"/>
@@ -3519,7 +3581,7 @@
       <c r="P3" s="96"/>
       <c r="Q3" s="96"/>
       <c r="R3" s="96"/>
-      <c r="S3" s="6"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="96"/>
@@ -3527,305 +3589,305 @@
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
-      <c r="G4" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="O4" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="P4" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q4" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="R4" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" s="6"/>
+      <c r="G4" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73">
+      <c r="B5" s="71">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="73" t="s">
+      <c r="C5" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="71"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+    </row>
+    <row r="6" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="43">
+        <v>2</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+    </row>
+    <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="43">
+        <v>3</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+    </row>
+    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="43">
+        <v>4</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+    </row>
+    <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="43">
+        <v>5</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="43">
         <v>6</v>
       </c>
-      <c r="E5" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-    </row>
-    <row r="6" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42">
-        <v>2</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-    </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="42">
-        <v>3</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-    </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="42">
-        <v>4</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-    </row>
-    <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="42">
-        <v>5</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-    </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42">
-        <v>6</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
+      <c r="C10" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="42">
+      <c r="B11" s="43">
         <v>7</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
+      <c r="C11" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="79">
+      <c r="B12" s="77">
         <v>8</v>
       </c>
-      <c r="C12" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="41"/>
+      <c r="C12" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79">
+      <c r="B13" s="77">
         <v>9</v>
       </c>
-      <c r="C13" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="84"/>
+      <c r="C13" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="82"/>
     </row>
     <row r="14" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
     </row>
     <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3932,7 +3994,7 @@
     <row r="1" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="110" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C2" s="111"/>
       <c r="D2" s="111"/>
@@ -3946,7 +4008,7 @@
       <c r="L2" s="111"/>
       <c r="M2" s="112"/>
       <c r="O2" s="97" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="P2" s="97"/>
       <c r="Q2" s="97"/>
@@ -3979,22 +4041,22 @@
       <c r="L3" s="114"/>
       <c r="M3" s="115"/>
       <c r="O3" s="96" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="P3" s="96" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="Q3" s="96" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="R3" s="96" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="S3" s="96" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="T3" s="96" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="U3" s="96"/>
       <c r="V3" s="96"/>
@@ -4026,132 +4088,132 @@
       <c r="Q4" s="96"/>
       <c r="R4" s="96"/>
       <c r="S4" s="96"/>
-      <c r="T4" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="U4" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="V4" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="W4" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="X4" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y4" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z4" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA4" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB4" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC4" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD4" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE4" s="81" t="s">
-        <v>125</v>
+      <c r="T4" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="U4" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="V4" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="W4" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="X4" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y4" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z4" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA4" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB4" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC4" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD4" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE4" s="79" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="122" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C5" s="123"/>
       <c r="D5" s="123"/>
       <c r="E5" s="123"/>
       <c r="F5" s="123"/>
       <c r="G5" s="123"/>
-      <c r="H5" s="93" t="s">
-        <v>188</v>
+      <c r="H5" s="91" t="s">
+        <v>222</v>
       </c>
       <c r="I5" s="124" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="J5" s="124"/>
       <c r="K5" s="124"/>
       <c r="L5" s="124"/>
       <c r="M5" s="125"/>
-      <c r="O5" s="73">
+      <c r="O5" s="71">
         <v>1</v>
       </c>
-      <c r="P5" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q5" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="S5" s="73"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
+      <c r="P5" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q5" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="S5" s="71"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
     </row>
     <row r="6" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="119" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C6" s="120"/>
       <c r="D6" s="120" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E6" s="120"/>
       <c r="F6" s="120"/>
       <c r="G6" s="120"/>
       <c r="H6" s="120" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I6" s="120"/>
       <c r="J6" s="120"/>
       <c r="K6" s="120"/>
       <c r="L6" s="120"/>
       <c r="M6" s="121"/>
-      <c r="O6" s="42">
+      <c r="O6" s="43">
         <v>2</v>
       </c>
-      <c r="P6" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="S6" s="42"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
+      <c r="P6" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="S6" s="43"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
     </row>
     <row r="7" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
@@ -4161,44 +4223,44 @@
         <v>30</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E7" s="105"/>
       <c r="F7" s="105"/>
       <c r="G7" s="105"/>
       <c r="H7" s="105" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I7" s="105"/>
       <c r="J7" s="105"/>
       <c r="K7" s="105"/>
       <c r="L7" s="105"/>
       <c r="M7" s="106"/>
-      <c r="O7" s="42">
+      <c r="O7" s="43">
         <v>3</v>
       </c>
-      <c r="P7" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="R7" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
+      <c r="P7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="S7" s="43"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
     </row>
     <row r="8" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
@@ -4208,44 +4270,44 @@
         <v>0</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E8" s="105"/>
       <c r="F8" s="105"/>
       <c r="G8" s="105"/>
       <c r="H8" s="105" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="I8" s="105"/>
       <c r="J8" s="105"/>
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
       <c r="M8" s="106"/>
-      <c r="O8" s="42">
+      <c r="O8" s="43">
         <v>4</v>
       </c>
-      <c r="P8" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q8" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="R8" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="S8" s="42"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
+      <c r="P8" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="S8" s="43"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
     </row>
     <row r="9" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
@@ -4255,44 +4317,44 @@
         <v>0</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E9" s="105"/>
       <c r="F9" s="105"/>
       <c r="G9" s="105"/>
       <c r="H9" s="105" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I9" s="105"/>
       <c r="J9" s="105"/>
       <c r="K9" s="105"/>
       <c r="L9" s="105"/>
       <c r="M9" s="106"/>
-      <c r="O9" s="42">
+      <c r="O9" s="43">
         <v>5</v>
       </c>
-      <c r="P9" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q9" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="R9" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
+      <c r="P9" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q9" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="S9" s="43"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
     </row>
     <row r="10" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
@@ -4302,44 +4364,44 @@
         <v>20</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E10" s="105"/>
       <c r="F10" s="105"/>
       <c r="G10" s="105"/>
       <c r="H10" s="105" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I10" s="105"/>
       <c r="J10" s="105"/>
       <c r="K10" s="105"/>
       <c r="L10" s="105"/>
       <c r="M10" s="106"/>
-      <c r="O10" s="42">
+      <c r="O10" s="43">
         <v>6</v>
       </c>
-      <c r="P10" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="R10" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="S10" s="42"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
+      <c r="P10" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="S10" s="43"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
     </row>
     <row r="11" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
@@ -4349,44 +4411,44 @@
         <v>0</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E11" s="105"/>
       <c r="F11" s="105"/>
       <c r="G11" s="105"/>
       <c r="H11" s="105" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="I11" s="105"/>
       <c r="J11" s="105"/>
       <c r="K11" s="105"/>
       <c r="L11" s="105"/>
       <c r="M11" s="106"/>
-      <c r="O11" s="42">
+      <c r="O11" s="43">
         <v>7</v>
       </c>
-      <c r="P11" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q11" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="R11" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="S11" s="42"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
+      <c r="P11" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q11" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="S11" s="43"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
     </row>
     <row r="12" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
@@ -4396,44 +4458,44 @@
         <v>30</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="E12" s="105"/>
       <c r="F12" s="105"/>
       <c r="G12" s="105"/>
       <c r="H12" s="105" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="I12" s="105"/>
       <c r="J12" s="105"/>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
       <c r="M12" s="106"/>
-      <c r="O12" s="79">
+      <c r="O12" s="77">
         <v>8</v>
       </c>
-      <c r="P12" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q12" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="R12" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="80"/>
-      <c r="AE12" s="41"/>
+      <c r="P12" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q12" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="R12" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="42"/>
     </row>
     <row r="13" spans="2:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
@@ -4443,44 +4505,44 @@
         <v>40</v>
       </c>
       <c r="D13" s="107" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="E13" s="108"/>
       <c r="F13" s="108"/>
       <c r="G13" s="109"/>
       <c r="H13" s="105" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="I13" s="105"/>
       <c r="J13" s="105"/>
       <c r="K13" s="105"/>
       <c r="L13" s="105"/>
       <c r="M13" s="106"/>
-      <c r="O13" s="85">
+      <c r="O13" s="83">
         <v>9</v>
       </c>
-      <c r="P13" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q13" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="R13" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="88"/>
+      <c r="P13" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q13" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="R13" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="86"/>
     </row>
     <row r="14" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
@@ -4495,7 +4557,7 @@
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
       <c r="M14" s="106"/>
-      <c r="N14" s="89"/>
+      <c r="N14" s="87"/>
       <c r="O14" s="99"/>
       <c r="P14" s="99"/>
       <c r="Q14" s="99"/>
@@ -4513,7 +4575,7 @@
       <c r="AC14" s="99"/>
       <c r="AD14" s="99"/>
       <c r="AE14" s="99"/>
-      <c r="AF14" s="6"/>
+      <c r="AF14" s="7"/>
     </row>
     <row r="15" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -4678,7 +4740,7 @@
     </row>
     <row r="24" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="102" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C24" s="103"/>
       <c r="D24" s="103"/>
@@ -4694,7 +4756,7 @@
     </row>
     <row r="25" spans="2:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="126" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="C25" s="127"/>
       <c r="D25" s="127"/>
@@ -4905,7 +4967,7 @@
     <row r="1" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="110" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C2" s="111"/>
       <c r="D2" s="111"/>
@@ -4919,7 +4981,7 @@
       <c r="L2" s="111"/>
       <c r="M2" s="112"/>
       <c r="O2" s="97" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="P2" s="97"/>
       <c r="Q2" s="97"/>
@@ -4952,22 +5014,22 @@
       <c r="L3" s="114"/>
       <c r="M3" s="115"/>
       <c r="O3" s="96" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="P3" s="96" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="Q3" s="96" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="R3" s="96" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="S3" s="96" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="T3" s="96" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="U3" s="96"/>
       <c r="V3" s="96"/>
@@ -4999,132 +5061,132 @@
       <c r="Q4" s="96"/>
       <c r="R4" s="96"/>
       <c r="S4" s="96"/>
-      <c r="T4" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="U4" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="V4" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="W4" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="X4" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y4" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z4" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA4" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB4" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC4" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD4" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE4" s="92" t="s">
-        <v>125</v>
+      <c r="T4" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="U4" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="V4" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="W4" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="X4" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y4" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z4" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA4" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB4" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC4" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD4" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE4" s="90" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="122" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C5" s="123"/>
       <c r="D5" s="123"/>
       <c r="E5" s="123"/>
       <c r="F5" s="123"/>
       <c r="G5" s="123"/>
-      <c r="H5" s="94" t="s">
-        <v>188</v>
+      <c r="H5" s="92" t="s">
+        <v>222</v>
       </c>
       <c r="I5" s="135" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="J5" s="135"/>
       <c r="K5" s="135"/>
       <c r="L5" s="135"/>
       <c r="M5" s="136"/>
-      <c r="O5" s="73">
+      <c r="O5" s="71">
         <v>1</v>
       </c>
-      <c r="P5" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q5" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="S5" s="73"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
+      <c r="P5" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q5" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="S5" s="71"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
     </row>
     <row r="6" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="119" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C6" s="120"/>
       <c r="D6" s="120" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E6" s="120"/>
       <c r="F6" s="120"/>
       <c r="G6" s="120"/>
       <c r="H6" s="120" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I6" s="120"/>
       <c r="J6" s="120"/>
       <c r="K6" s="120"/>
       <c r="L6" s="120"/>
       <c r="M6" s="121"/>
-      <c r="O6" s="42">
+      <c r="O6" s="43">
         <v>2</v>
       </c>
-      <c r="P6" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="S6" s="42"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
+      <c r="P6" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="S6" s="43"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
     </row>
     <row r="7" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
@@ -5134,44 +5196,44 @@
         <v>50</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="E7" s="105"/>
       <c r="F7" s="105"/>
       <c r="G7" s="105"/>
       <c r="H7" s="105" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="I7" s="105"/>
       <c r="J7" s="105"/>
       <c r="K7" s="105"/>
       <c r="L7" s="105"/>
       <c r="M7" s="106"/>
-      <c r="O7" s="42">
+      <c r="O7" s="43">
         <v>3</v>
       </c>
-      <c r="P7" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="R7" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
+      <c r="P7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="S7" s="43"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
     </row>
     <row r="8" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
@@ -5186,31 +5248,31 @@
       <c r="K8" s="105"/>
       <c r="L8" s="105"/>
       <c r="M8" s="106"/>
-      <c r="O8" s="42">
+      <c r="O8" s="43">
         <v>4</v>
       </c>
-      <c r="P8" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q8" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="R8" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="S8" s="42"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
+      <c r="P8" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="S8" s="43"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
     </row>
     <row r="9" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -5225,31 +5287,31 @@
       <c r="K9" s="105"/>
       <c r="L9" s="105"/>
       <c r="M9" s="106"/>
-      <c r="O9" s="42">
+      <c r="O9" s="43">
         <v>5</v>
       </c>
-      <c r="P9" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q9" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="R9" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
+      <c r="P9" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q9" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="S9" s="43"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
     </row>
     <row r="10" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
@@ -5264,31 +5326,31 @@
       <c r="K10" s="105"/>
       <c r="L10" s="105"/>
       <c r="M10" s="106"/>
-      <c r="O10" s="42">
+      <c r="O10" s="43">
         <v>6</v>
       </c>
-      <c r="P10" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="R10" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="S10" s="42"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
+      <c r="P10" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="S10" s="43"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
     </row>
     <row r="11" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -5303,31 +5365,31 @@
       <c r="K11" s="105"/>
       <c r="L11" s="105"/>
       <c r="M11" s="106"/>
-      <c r="O11" s="42">
+      <c r="O11" s="43">
         <v>7</v>
       </c>
-      <c r="P11" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q11" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="R11" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="S11" s="42"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
+      <c r="P11" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q11" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="S11" s="43"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
     </row>
     <row r="12" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
@@ -5342,31 +5404,31 @@
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
       <c r="M12" s="106"/>
-      <c r="O12" s="79">
+      <c r="O12" s="77">
         <v>8</v>
       </c>
-      <c r="P12" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q12" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="R12" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="80"/>
-      <c r="AE12" s="41"/>
+      <c r="P12" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q12" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="R12" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="42"/>
     </row>
     <row r="13" spans="2:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
@@ -5381,31 +5443,31 @@
       <c r="K13" s="105"/>
       <c r="L13" s="105"/>
       <c r="M13" s="106"/>
-      <c r="O13" s="85">
+      <c r="O13" s="83">
         <v>9</v>
       </c>
-      <c r="P13" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q13" s="86" t="s">
-        <v>171</v>
-      </c>
-      <c r="R13" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="88"/>
+      <c r="P13" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q13" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="R13" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="86"/>
     </row>
     <row r="14" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
@@ -5420,7 +5482,7 @@
       <c r="K14" s="105"/>
       <c r="L14" s="105"/>
       <c r="M14" s="106"/>
-      <c r="N14" s="89"/>
+      <c r="N14" s="87"/>
       <c r="O14" s="99"/>
       <c r="P14" s="99"/>
       <c r="Q14" s="99"/>
@@ -5438,7 +5500,7 @@
       <c r="AC14" s="99"/>
       <c r="AD14" s="99"/>
       <c r="AE14" s="99"/>
-      <c r="AF14" s="6"/>
+      <c r="AF14" s="7"/>
     </row>
     <row r="15" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -5568,7 +5630,7 @@
     </row>
     <row r="24" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="102" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C24" s="103"/>
       <c r="D24" s="103"/>
@@ -5584,7 +5646,7 @@
     </row>
     <row r="25" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="126" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="C25" s="127"/>
       <c r="D25" s="127"/>
@@ -5789,15 +5851,15 @@
     <row r="1" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="96" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="96"/>
@@ -5809,28 +5871,28 @@
     </row>
     <row r="4" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="96" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C4" s="96"/>
       <c r="D4" s="96" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
       <c r="G4" s="96"/>
       <c r="H4" s="96" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I4" s="96" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>5</v>
+      <c r="B5" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="96"/>
       <c r="E5" s="96"/>
@@ -5844,24 +5906,24 @@
         <v>1</v>
       </c>
       <c r="C6" s="149" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D6" s="145" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E6" s="145"/>
       <c r="F6" s="145"/>
       <c r="G6" s="145"/>
-      <c r="H6" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="43"/>
+      <c r="H6" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="149"/>
       <c r="C7" s="149"/>
       <c r="D7" s="144" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E7" s="145"/>
       <c r="F7" s="145"/>
@@ -5934,16 +5996,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="137" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D14" s="150" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E14" s="151"/>
       <c r="F14" s="151"/>
       <c r="G14" s="152"/>
       <c r="H14" s="142" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I14" s="137"/>
     </row>
@@ -5951,7 +6013,7 @@
       <c r="B15" s="138"/>
       <c r="C15" s="138"/>
       <c r="D15" s="144" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="E15" s="145"/>
       <c r="F15" s="145"/>
@@ -5964,10 +6026,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D16" s="153" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="E16" s="154"/>
       <c r="F16" s="154"/>
@@ -5979,7 +6041,7 @@
       <c r="B17" s="147"/>
       <c r="C17" s="147"/>
       <c r="D17" s="144" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="E17" s="144"/>
       <c r="F17" s="144"/>
@@ -6022,10 +6084,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="137" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D21" s="153" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="E21" s="154"/>
       <c r="F21" s="154"/>
@@ -6037,7 +6099,7 @@
       <c r="B22" s="147"/>
       <c r="C22" s="147"/>
       <c r="D22" s="144" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="E22" s="144"/>
       <c r="F22" s="144"/>
@@ -6090,22 +6152,22 @@
         <v>5</v>
       </c>
       <c r="C27" s="137" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D27" s="139" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="E27" s="140"/>
       <c r="F27" s="140"/>
       <c r="G27" s="141"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="90"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="88"/>
     </row>
     <row r="28" spans="2:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="147"/>
       <c r="C28" s="147"/>
       <c r="D28" s="144" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="E28" s="144"/>
       <c r="F28" s="144"/>
@@ -6146,10 +6208,10 @@
     <row r="32" spans="2:9" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="137"/>
       <c r="C32" s="137" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D32" s="139" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="E32" s="140"/>
       <c r="F32" s="140"/>
@@ -6161,7 +6223,7 @@
       <c r="B33" s="138"/>
       <c r="C33" s="138"/>
       <c r="D33" s="139" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="E33" s="140"/>
       <c r="F33" s="140"/>
@@ -6174,26 +6236,26 @@
         <v>6</v>
       </c>
       <c r="C34" s="137" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D34" s="139" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="E34" s="140"/>
       <c r="F34" s="140"/>
       <c r="G34" s="141"/>
       <c r="H34" s="142" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I34" s="142" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="147"/>
       <c r="C35" s="147"/>
       <c r="D35" s="144" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E35" s="144"/>
       <c r="F35" s="144"/>
@@ -6256,16 +6318,16 @@
         <v>7</v>
       </c>
       <c r="C41" s="137" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D41" s="139" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="E41" s="140"/>
       <c r="F41" s="140"/>
       <c r="G41" s="141"/>
       <c r="H41" s="142" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="I41" s="137"/>
     </row>
@@ -6273,7 +6335,7 @@
       <c r="B42" s="138"/>
       <c r="C42" s="138"/>
       <c r="D42" s="144" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="E42" s="145"/>
       <c r="F42" s="145"/>
@@ -6286,16 +6348,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="137" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D43" s="139" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="E43" s="140"/>
       <c r="F43" s="140"/>
       <c r="G43" s="141"/>
       <c r="H43" s="142" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="I43" s="137"/>
     </row>
@@ -6303,7 +6365,7 @@
       <c r="B44" s="138"/>
       <c r="C44" s="138"/>
       <c r="D44" s="144" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="E44" s="145"/>
       <c r="F44" s="145"/>
@@ -6396,4 +6458,695 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:W22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.375" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="156" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="178" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="164" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="164" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="169" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="170"/>
+      <c r="V4" s="170"/>
+      <c r="W4" s="171"/>
+    </row>
+    <row r="5" spans="2:23" ht="66" x14ac:dyDescent="0.3">
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="52"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="174"/>
+    </row>
+    <row r="6" spans="2:23" ht="66" x14ac:dyDescent="0.3">
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="52"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="174"/>
+    </row>
+    <row r="7" spans="2:23" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="180" t="s">
+        <v>231</v>
+      </c>
+      <c r="K7" s="179" t="s">
+        <v>232</v>
+      </c>
+      <c r="L7" s="172"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="174"/>
+    </row>
+    <row r="8" spans="2:23" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="157" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="188" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="63"/>
+      <c r="J8" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="172" t="s">
+        <v>234</v>
+      </c>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="173"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="174"/>
+    </row>
+    <row r="9" spans="2:23" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="186" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="186" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="187" t="s">
+        <v>246</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="181" t="s">
+        <v>235</v>
+      </c>
+      <c r="K9" s="182" t="s">
+        <v>236</v>
+      </c>
+      <c r="L9" s="172"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="174"/>
+    </row>
+    <row r="10" spans="2:23" ht="66" x14ac:dyDescent="0.3">
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="K10" s="42"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="173"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="174"/>
+    </row>
+    <row r="11" spans="2:23" ht="66" x14ac:dyDescent="0.3">
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="42"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="173"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="173"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="173"/>
+      <c r="U11" s="173"/>
+      <c r="V11" s="173"/>
+      <c r="W11" s="174"/>
+    </row>
+    <row r="12" spans="2:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="161" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="K12" s="182" t="s">
+        <v>238</v>
+      </c>
+      <c r="L12" s="172" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="173"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="173"/>
+      <c r="S12" s="173"/>
+      <c r="T12" s="173"/>
+      <c r="U12" s="173"/>
+      <c r="V12" s="173"/>
+      <c r="W12" s="174"/>
+    </row>
+    <row r="13" spans="2:23" ht="116.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" s="64"/>
+      <c r="J13" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="182" t="s">
+        <v>239</v>
+      </c>
+      <c r="L13" s="175"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="177"/>
+    </row>
+    <row r="14" spans="2:23" ht="66" x14ac:dyDescent="0.3">
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="2:23" ht="66" x14ac:dyDescent="0.3">
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="42"/>
+    </row>
+    <row r="16" spans="2:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="167" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="167" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="65"/>
+      <c r="J16" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="183" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="184" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="65"/>
+      <c r="J17" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="42"/>
+    </row>
+    <row r="18" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B18" s="168"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="59"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" s="42"/>
+    </row>
+    <row r="19" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="B19" s="159" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="159" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="42"/>
+    </row>
+    <row r="20" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="42"/>
+    </row>
+    <row r="21" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="42"/>
+    </row>
+    <row r="22" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="K22" s="185" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>